--- a/biology/Médecine/Caroline_Raquin/Caroline_Raquin.xlsx
+++ b/biology/Médecine/Caroline_Raquin/Caroline_Raquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline Raquin, née le 24 juin 1972, à Paray-le-Monial est une sage-femme et syndicaliste française. Elle est connue pour avoir été l’une des porte-parole du collectif des sages-femmes[1] durant la grève de 2013-2014, en tant que présidente de l’Organisation nationale syndicale des sages-femmes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caroline Raquin, née le 24 juin 1972, à Paray-le-Monial est une sage-femme et syndicaliste française. Elle est connue pour avoir été l’une des porte-parole du collectif des sages-femmes durant la grève de 2013-2014, en tant que présidente de l’Organisation nationale syndicale des sages-femmes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine et formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issue d'un milieu rural et ouvrier, Caroline Raquin entreprend des études de sages-femmes après un DEUG de biologie[2]. Elle obtient son diplôme de sage-femme en 1999. Elle exerce pendant quelques années à l'hôpital Max-Fourestier de Nanterre[2] puis intègre l’hôpital Louis-Mourier à Colombes dans les Hauts-de-Seine en 2003[2]. Elle est titulaire d’un master 2 d'échographie (M2), Sciences et technologies biomédicales - Diagnostic prénatal, option dépistage.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issue d'un milieu rural et ouvrier, Caroline Raquin entreprend des études de sages-femmes après un DEUG de biologie. Elle obtient son diplôme de sage-femme en 1999. Elle exerce pendant quelques années à l'hôpital Max-Fourestier de Nanterre puis intègre l’hôpital Louis-Mourier à Colombes dans les Hauts-de-Seine en 2003. Elle est titulaire d’un master 2 d'échographie (M2), Sciences et technologies biomédicales - Diagnostic prénatal, option dépistage.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Parcours militant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est en 2009 que Caroline Raquin adhère à l'Organisation nationale syndicale des sages-femmes (ONSSF), à la suite d’un mouvement de soutien aux sages-femmes libérales (seul syndicat professionnel de sages-femmes qui acceptait à l’époque les hospitalières). Elle devient la même année vice-présidente de la section Île-de-France[2].
-En 2010, elle entre au conseil d'administration national et est élue présidente de l'ONSSF en mars 2013[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est en 2009 que Caroline Raquin adhère à l'Organisation nationale syndicale des sages-femmes (ONSSF), à la suite d’un mouvement de soutien aux sages-femmes libérales (seul syndicat professionnel de sages-femmes qui acceptait à l’époque les hospitalières). Elle devient la même année vice-présidente de la section Île-de-France.
+En 2010, elle entre au conseil d'administration national et est élue présidente de l'ONSSF en mars 2013.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Exposition médiatique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Raquin apparaît dans les médias, à l’occasion du mouvement des sages-femmes qui durera plusieurs mois d'octobre 2013 à mai 2014, et notamment des cinq manifestations. 
-Durant cette période, elle est régulièrement invitée à la radio[3],[4],[5],[6], ou à la télévision[7],[8],[9],[10]. Elle se signale par son « franc-parler »[2], notamment dans le conflit l'opposant à la ministre de la Santé, Marisol Touraine, accusant cette dernière de « flancher devant le lobbying des médecins »[11] ou de « mépriser les sages-femmes »[12].
+Durant cette période, elle est régulièrement invitée à la radio ou à la télévision. Elle se signale par son « franc-parler », notamment dans le conflit l'opposant à la ministre de la Santé, Marisol Touraine, accusant cette dernière de « flancher devant le lobbying des médecins » ou de « mépriser les sages-femmes ».
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t xml:space="preserve">Élection et nomination </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline Raquin est élue à la Commission médicale d'établissement (CME) de l'APHP en 2014[13], et réélue en 2016[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caroline Raquin est élue à la Commission médicale d'établissement (CME) de l'APHP en 2014, et réélue en 2016.
 Elle est également élue à la commission administrative paritaire des sages-femmes de l'APHP, membre du CESI à la Croix-Rouge, membre de la commission scientifique indépendante pour le développement professionnel continu et directrice de publication de L'Officiel de la sage-femme (LOSF).
 </t>
         </is>
